--- a/ruoyi-admin/src/main/resources/static/bj_template_contract.xlsx
+++ b/ruoyi-admin/src/main/resources/static/bj_template_contract.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26812"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a/IdeaProjects/fmis-process/business-doc/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="456" windowWidth="23256" windowHeight="13176" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="13">
   <si>
     <t>产品型号</t>
     <rPh sb="0" eb="1">
@@ -43,10 +38,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>等级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>规格</t>
     <rPh sb="0" eb="1">
       <t>gui'ge</t>
@@ -54,11 +45,25 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">DN80 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">DN100 </t>
+    <t>D7A1X3P-16Q</t>
+  </si>
+  <si>
+    <t>DN65</t>
+  </si>
+  <si>
+    <t>DN80</t>
+  </si>
+  <si>
+    <t>DN100</t>
+  </si>
+  <si>
+    <t>DN125</t>
+  </si>
+  <si>
+    <t>DN150</t>
+  </si>
+  <si>
+    <t>DN50</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -66,31 +71,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">DN20 </t>
+    <t>系列</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>DN32</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ZSL41HC-16C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ZSL41HC-16C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ZSL41HC-16C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ZSL41HC-16C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DN65</t>
+    <t>D270</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -98,7 +83,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -180,9 +165,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="23">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -209,7 +200,77 @@
     <cellStyle name="已访问的超链接" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="22" builtinId="9" hidden="1"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF9C0006"/>
+        <name val="DengXian"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF9C0006"/>
+        <name val="DengXian"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF9C0006"/>
+        <name val="DengXian"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -262,7 +323,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="DengXian Light" panose="020F0302020204030204"/>
+        <a:latin typeface="DengXian Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -297,7 +358,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="DengXian" panose="020F0502020204030204"/>
+        <a:latin typeface="DengXian"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -474,7 +535,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -482,103 +543,138 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="2" width="28.6640625" customWidth="1"/>
+    <col min="1" max="1" width="14.1796875" customWidth="1"/>
+    <col min="2" max="2" width="10" customWidth="1"/>
+    <col min="3" max="3" width="11.54296875" customWidth="1"/>
+    <col min="4" max="4" width="12.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="16.8">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="1"/>
+      <c r="B2" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="C2">
         <v>20</v>
       </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>10</v>
+      <c r="D2" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="16.8">
+      <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="C3">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    <row r="4" spans="1:4" ht="16.8">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C4">
         <v>20</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="1"/>
+    <row r="5" spans="1:4" ht="16.8">
+      <c r="A5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="C5">
+        <v>20</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="16.8">
+      <c r="A6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="C6">
+        <v>20</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="16.8">
+      <c r="A7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7">
+        <v>20</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="16.8">
+      <c r="A8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8">
+        <v>20</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="C6">
-        <v>11</v>
-      </c>
-      <c r="D6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="1"/>
-      <c r="C7">
-        <v>12</v>
-      </c>
-      <c r="D7" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="A2:A8">
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>